--- a/biology/Microbiologie/Trichodinidae/Trichodinidae.xlsx
+++ b/biology/Microbiologie/Trichodinidae/Trichodinidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Trichodinidae sont une famille de Ciliés de la classe des Oligohymenophorea et de l'ordre des Peritrichida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Trichodina, composé du préfixe tricho-, « velu, chevelu, poilu », et du suffixe -din (du grec δίνη / dini, « tourbillon, vortex, spire », littéralement « spire poilue ».
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Trichodinidae ont un petite taille (&lt; 80 µm). Ils ont la forme de cylindre, de tonneau ou de gobelet ; sont parfois légèrement effilés au sommet ou aplatis et de forme discoïde ou hémisphérique. Ils ont un disque adhésif avec environ 15 à 60 denticules de forme complexe, composé d’une partie centrale avec ou sans épine interne, et un limbe externe aplati, le centre et le limbe étant souvent reliés entre eux par des crochets et/ou des pointes, entourant une scopule non ciliée. La ciliature buccale, bien visible, est constituée d'une spirale allant d'un unique demi-tour d’environ 180° à deux ou trois cercles presque complets, toujours de grand rayon, égal à celui du disque adhésif aboral. Leur macronoyau est en forme de saucisse, ou de fer à cheval. Micronoyau et vacuole contractile sont présents. Le cytoprocte n’a pas été observé[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Trichodinidae ont un petite taille (&lt; 80 µm). Ils ont la forme de cylindre, de tonneau ou de gobelet ; sont parfois légèrement effilés au sommet ou aplatis et de forme discoïde ou hémisphérique. Ils ont un disque adhésif avec environ 15 à 60 denticules de forme complexe, composé d’une partie centrale avec ou sans épine interne, et un limbe externe aplati, le centre et le limbe étant souvent reliés entre eux par des crochets et/ou des pointes, entourant une scopule non ciliée. La ciliature buccale, bien visible, est constituée d'une spirale allant d'un unique demi-tour d’environ 180° à deux ou trois cercles presque complets, toujours de grand rayon, égal à celui du disque adhésif aboral. Leur macronoyau est en forme de saucisse, ou de fer à cheval. Micronoyau et vacuole contractile sont présents. Le cytoprocte n’a pas été observé.
 </t>
         </is>
       </c>
